--- a/public/preprocessing/@AttaHalilintar.xlsx
+++ b/public/preprocessing/@AttaHalilintar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19038</v>
+        <v>32667</v>
       </c>
       <c r="C2" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gue beneran capek udahan ajalah</t>
+          <t>rt prince william kate middleton meghan markle prince harry pfft  only know atta amp aurel</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['gue', 'beneran', 'capek', 'udahan', 'ajalah']</t>
+          <t>['rt', 'prince', 'william', 'kate', 'middleton', 'meghan', 'markle', 'prince', 'harry', 'pfft', 'only', 'know', 'atta', 'amp', 'aurel']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'prince', 'william', 'kate', 'middleton', 'meghan', 'markle', 'prince', 'harry', 'pfft', 'only', 'know', 'atta', 'amp', 'aurel']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['gue', 'beneran', 'capek', 'udahan', 'ajalah']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['gue', 'beneran', 'capek', 'udahan', 'aja']</t>
+          <t>['prince', 'william', 'kate', 'middleton', 'meghan', 'markle', 'prince', 'harry', 'pfft', 'only', 'know', 'atta', 'aurel']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['prince', 'william', 'kate', 'middleton', 'meghan', 'markle', 'prince', 'harry', 'pfft', 'only', 'know', 'atta', 'aurel']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19039</v>
+        <v>32668</v>
       </c>
       <c r="C3" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -524,15 +534,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -543,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19040</v>
+        <v>32669</v>
       </c>
       <c r="C4" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -560,17 +575,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['kamu', 'never', 'look', 'good', 'trying', 'to', 'make', 'someone', 'else', 'look', 'bad']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['you', 'never', 'look', 'good', 'trying', 'to', 'make', 'someone', 'else', 'look', 'bad']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['you', 'never', 'look', 'good', 'trying', 'to', 'make', 'someone', 'else', 'look', 'bad']</t>
+          <t>['never', 'look', 'good', 'trying', 'to', 'make', 'someone', 'else', 'look', 'bad']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['never', 'look', 'good', 'trying', 'to', 'make', 'someone', 'else', 'look', 'bad']</t>
         </is>
       </c>
     </row>
@@ -579,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19041</v>
+        <v>32670</v>
       </c>
       <c r="C5" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -596,15 +616,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['kami', 'langsung', 'mengantarkan', 'vitamin', 'dan', 'alat', 'kesehatan', 'ke', 'depan', 'pintu', 'rumah', 'masyarakat', 'plosok', 'bersama', 'ustad']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['langsung', 'mengantarkan', 'vitamin', 'alat', 'kesehatan', 'pintu', 'rumah', 'masyarakat', 'plosok', 'ustad']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['langsung', 'antar', 'vitamin', 'alat', 'sehat', 'pintu', 'rumah', 'masyarakat', 'plosok', 'ustad']</t>
         </is>
@@ -615,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19042</v>
+        <v>32671</v>
       </c>
       <c r="C6" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -632,17 +657,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['untuk', 'para', 'pejuang', 'di, luar', 'sana', 'bang', 'atta', 'mana', 'until', 'tomorrow', 'nya', 'ini', 'challenge', 'versi', 'ku', 'challe']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['pejuang', 'diluar', 'bang', 'atta', 'until', 'tomorrow', 'challenge', 'versi', 'ku', 'challe']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['juang', 'luar', 'bang', 'atta', 'until', 'tomorrow', 'challenge', 'versi', 'ku', 'challe']</t>
+          <t>['pejuang', 'di, luar', 'bang', 'atta', 'until', 'tomorrow', 'challenge', 'versi', 'ku', 'challe']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['juang', 'di luar', 'bang', 'atta', 'until', 'tomorrow', 'challenge', 'versi', 'ku', 'challe']</t>
         </is>
       </c>
     </row>
@@ -651,10 +681,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19043</v>
+        <v>32672</v>
       </c>
       <c r="C7" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -668,15 +698,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['mohon', 'maaf', 'lahir', 'batin']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['mohon', 'maaf', 'lahir', 'batin']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['mohon', 'maaf', 'lahir', 'batin']</t>
         </is>
@@ -687,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19044</v>
+        <v>32673</v>
       </c>
       <c r="C8" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -704,17 +739,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['harus', 'melihat', 'ibu', 'hebat', 'ini', 'menangis', 'berlinang', 'air', 'mata', 'setelah', 'hutangnya', 'terbayar', 'dan', 'anaknya', 'bisa', 'sekolah', 'lagi', 'yan']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['haru', 'hebat', 'menangis', 'berlinang', 'air', 'mata', 'hutangnya', 'terbayar', 'anaknya', 'sekolah', 'yan']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['haru', 'hebat', 'menang', 'linang', 'air', 'mata', 'hutang', 'bayar', 'anak', 'sekolah', 'yan']</t>
+          <t>['hebat', 'menangis', 'berlinang', 'air', 'mata', 'hutangnya', 'terbayar', 'anaknya', 'sekolah', 'yan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['hebat', 'menang', 'linang', 'air', 'mata', 'hutang', 'bayar', 'anak', 'sekolah', 'yan']</t>
         </is>
       </c>
     </row>
@@ -723,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19045</v>
+        <v>32674</v>
       </c>
       <c r="C9" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -740,15 +780,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['love', 'pak', 'ikut', 'kegiatan', 'bapak', 'seharian', 'dan', 'mendengar', 'bapak', 'bercerita', 'banyak', 'pelajaran', 'buat', 'aku', 'semoga', 'berma']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['love', 'kegiatan', 'seharian', 'mendengar', 'bercerita', 'pelajaran', 'semoga', 'berma']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['love', 'giat', 'hari', 'dengar', 'cerita', 'ajar', 'moga', 'berma']</t>
         </is>
@@ -759,10 +804,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19046</v>
+        <v>32675</v>
       </c>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -776,17 +821,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['senang', 'melihat', 'bapak', 'bahagia', 'bapak', 'penghasilang', 'saya', 'ribu', 'per', 'bulan', 'tidak', 'punya', 'tempat', 'tinggal', 'menumpang', 'mi']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['senang', 'bahagia', 'penghasilang', 'ribu', 'tinggal', 'numpang', 'mi']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['senang', 'bahagia', 'penghasilang', 'ribu', 'tinggal', 'numpang', 'mi']</t>
+          <t>['senang', 'bahagia', 'penghasilang', 'ribu', 'tinggal', 'menumpang', 'mi']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['senang', 'bahagia', 'penghasilang', 'ribu', 'tinggal', 'tumpang', 'mi']</t>
         </is>
       </c>
     </row>
@@ -795,10 +845,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19047</v>
+        <v>32676</v>
       </c>
       <c r="C11" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -808,15 +858,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -827,10 +882,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19048</v>
+        <v>32677</v>
       </c>
       <c r="C12" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -844,17 +899,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['aminn']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['aminn']</t>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['amin']</t>
         </is>
       </c>
     </row>
@@ -863,10 +923,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19049</v>
+        <v>32678</v>
       </c>
       <c r="C13" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -880,17 +940,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['semangat', 'kuliahnya', 'ya', 'kejar', 'cita', 'harus', 'bersyukur', 'bisa', 'kuliah', 'dulu', 'aku', 'tidak, punya', 'uang', 'buat', 'kuliah']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['semangat', 'kuliahnya', 'kejar', 'cita', 'bersyukur', 'kuliah', 'gapunya', 'uang', 'kuliah']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['semangat', 'kuliah', 'kejar', 'cita', 'syukur', 'kuliah', 'gapunya', 'uang', 'kuliah']</t>
+          <t>['semangat', 'kuliahnya', 'kejar', 'cita', 'bersyukur', 'kuliah', 'tidak, punya', 'uang', 'kuliah']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['semangat', 'kuliah', 'kejar', 'cita', 'syukur', 'kuliah', 'tidak punya', 'uang', 'kuliah']</t>
         </is>
       </c>
     </row>
@@ -899,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19050</v>
+        <v>32679</v>
       </c>
       <c r="C14" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -916,17 +981,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['tinggal', 'di, mana', 'aku', 'coba', 'cek']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['tinggal', 'dmn', 'coba', 'cek']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['tinggal', 'dmn', 'coba', 'cek']</t>
+          <t>['tinggal', 'di, mana', 'coba', 'cek']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['tinggal', 'di mana', 'coba', 'cek']</t>
         </is>
       </c>
     </row>
@@ -935,10 +1005,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19051</v>
+        <v>32680</v>
       </c>
       <c r="C15" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -952,15 +1022,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['mana', 'no', 'rek', 'km']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['no', 'rek', 'km']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['no', 'rek', 'km']</t>
         </is>
@@ -971,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19052</v>
+        <v>32681</v>
       </c>
       <c r="C16" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -988,17 +1063,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['di, mana', 'aku', 'bisa', 'kontak', 'bapak', 'ini']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['dmn', 'kontak']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['dmn', 'kontak']</t>
+          <t>['di, mana', 'kontak']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['di mana', 'kontak']</t>
         </is>
       </c>
     </row>
@@ -1007,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19053</v>
+        <v>32682</v>
       </c>
       <c r="C17" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1024,15 +1104,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['km', 'harus', 'kembali']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['km']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['km']</t>
         </is>
@@ -1043,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19054</v>
+        <v>32683</v>
       </c>
       <c r="C18" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1060,15 +1145,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['aku', 'suka', 'pisang', 'bang']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['suka', 'pisang', 'bang']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['suka', 'pisang', 'bang']</t>
         </is>
@@ -1079,10 +1169,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19055</v>
+        <v>32684</v>
       </c>
       <c r="C19" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1096,15 +1186,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['oh', 'tuhan', 'rumah', 'ku', 'dan', 'sekitarnya', 'terasa', 'gempa', 'semoga', 'warga', 'jakarta', 'baik', 'baik', 'saja', 'ya', 'apa', 'yang', 'km', 'lakukan', 'pas', 'ge']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['oh', 'tuhan', 'rumah', 'ku', 'gempa', 'semoga', 'warga', 'jakarta', 'km', 'lakukan', 'pas', 'ge']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['oh', 'tuhan', 'rumah', 'ku', 'gempa', 'moga', 'warga', 'jakarta', 'km', 'laku', 'pas', 'ge']</t>
         </is>
@@ -1115,10 +1210,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19056</v>
+        <v>32685</v>
       </c>
       <c r="C20" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1132,17 +1227,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['hehe', 'terima, kasih', 'sudah', 'mau', 'pengikut', 'dalam', 'waktu', 'hari', 'terima, kasih', 'warganet', 'yang', 'budiman']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['hehehe', 'thank', 'udah', 'followers', 'thank', 'netijen', 'budiman']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['hehehe', 'thank', 'udah', 'followers', 'thank', 'netijen', 'budiman']</t>
+          <t>['terima, kasih', 'pengikut', 'terima, kasih', 'warganet', 'budiman']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'ikut', 'terima kasih', 'warganet', 'budiman']</t>
         </is>
       </c>
     </row>
@@ -1151,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19057</v>
+        <v>32686</v>
       </c>
       <c r="C21" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1168,17 +1268,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['betul', 'bro', 'gue', 'ingin', 'sharing', 'saja', 'dan', 'keresahan', 'curhatan', 'hati', 'dan', 'yang', 'menyentuh', 'gue', 'tiap', 'hariii']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['broo', 'gw', 'pngen', 'sharing', 'keresahan', 'curhatan', 'hati', 'yng', 'nyentuh', 'gw', 'hariii']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['broo', 'gw', 'pngen', 'sharing', 'resah', 'curhatan', 'hati', 'yng', 'nyentuh', 'gw', 'hariii']</t>
+          <t>['bro', 'gue', 'sharing', 'keresahan', 'curhatan', 'hati', 'menyentuh', 'gue', 'hariii']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['bro', 'gue', 'sharing', 'resah', 'curhatan', 'hati', 'sentuh', 'gue', 'hariii']</t>
         </is>
       </c>
     </row>
@@ -1187,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19058</v>
+        <v>32687</v>
       </c>
       <c r="C22" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1204,17 +1309,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['ya', 'allah', 'hari', 'ini', 'aku', 'harus', 'lihat', 'cerita', 'ini', 'ibu', 'nya', 'dipanggil', 'allah', 'dalam', 'keadaan', 'tersenyum', 'setelah', 'melhirkan', 'putri']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['allah', 'haru', 'liat', 'cerita', 'dipanggil', 'allah', 'tersenyum', 'melhirkan', 'putri']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['allah', 'haru', 'liat', 'cerita', 'panggil', 'allah', 'senyum', 'melhirkan', 'putri']</t>
+          <t>['allah', 'lihat', 'cerita', 'dipanggil', 'allah', 'tersenyum', 'melhirkan', 'putri']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['allah', 'lihat', 'cerita', 'panggil', 'allah', 'senyum', 'melhirkan', 'putri']</t>
         </is>
       </c>
     </row>
@@ -1223,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19059</v>
+        <v>32688</v>
       </c>
       <c r="C23" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1240,17 +1350,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['silakan', 'tertawa', 'gue', 'juga', 'tertawa', 'yang', 'kiri', 'habis', 'dagang', 'ke', 'terminal', 'sudah', 'kumuh', 'ceking', 'celana', 'pinjam', 'sendal', 'kw']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['silahkan', 'ketawa', 'gw', 'ngakak', 'kiri', 'abis', 'dagang', 'terminal', 'udah', 'kumuh', 'ceking', 'celana', 'minjem', 'sendal', 'kw']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['silah', 'ketawa', 'gw', 'ngakak', 'kiri', 'abis', 'dagang', 'terminal', 'udah', 'kumuh', 'ceking', 'celana', 'minjem', 'sendal', 'kw']</t>
+          <t>['silakan', 'tertawa', 'gue', 'tertawa', 'kiri', 'habis', 'dagang', 'terminal', 'kumuh', 'ceking', 'celana', 'pinjam', 'sendal', 'kw']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['sila', 'tertawa', 'gue', 'tertawa', 'kiri', 'habis', 'dagang', 'terminal', 'kumuh', 'ceking', 'celana', 'pinjam', 'sendal', 'kw']</t>
         </is>
       </c>
     </row>
@@ -1259,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19060</v>
+        <v>32689</v>
       </c>
       <c r="C24" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1276,15 +1391,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['itu', 'saja', 'deh']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['deh']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['deh']</t>
         </is>
@@ -1295,10 +1415,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19061</v>
+        <v>32690</v>
       </c>
       <c r="C25" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1312,17 +1432,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['post', 'photo', 'pertama', 'dengan', 'orang', 'yang', 'paling', 'ku', 'sayang', 'mama', 'aku', 'mau', 'tmenin', 'mama', 'sampai', 'tua', 'nanti', 'dulu', 'aku', 'kira', 'mam']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['post', 'photo', 'dngn', 'orang', 'ku', 'sayang', 'mama', 'tmenin', 'mama', 'sampe', 'tua', 'mam']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['post', 'photo', 'dngn', 'orang', 'ku', 'sayang', 'mama', 'tmenin', 'mama', 'sampe', 'tua', 'mam']</t>
+          <t>['post', 'photo', 'orang', 'ku', 'sayang', 'mama', 'tmenin', 'mama', 'tua', 'mam']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['post', 'photo', 'orang', 'ku', 'sayang', 'mama', 'tmenin', 'mama', 'tua', 'mam']</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1456,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19062</v>
+        <v>32691</v>
       </c>
       <c r="C26" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1344,15 +1469,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1363,10 +1493,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19063</v>
+        <v>32692</v>
       </c>
       <c r="C27" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1380,15 +1510,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['ternyata', 'saudara', 'ku', 'lebih', 'dari']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['saudara', 'ku']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['saudara', 'ku']</t>
         </is>
@@ -1399,10 +1534,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19064</v>
+        <v>32693</v>
       </c>
       <c r="C28" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1416,17 +1551,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['asep', 'pankreas', 'online', 'sudah', 'pernah', 'belum']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['usep', 'pankreas', 'onlen', 'udh', 'belom']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['usep', 'pankreas', 'onlen', 'udh', 'bom']</t>
+          <t>['asep', 'pankreas', 'online']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['asep', 'pankreas', 'online']</t>
         </is>
       </c>
     </row>
@@ -1435,10 +1575,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19065</v>
+        <v>32694</v>
       </c>
       <c r="C29" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1452,15 +1592,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['assalamulaikum', 'warga', 'twitter', 'yang', 'katanya', 'lucu', 'apa', 'sih', 'yang', 'bikin', 'twitter', 'lucu']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['assalamulaikum', 'warga', 'twitter', 'lucu', 'twitter', 'lucu']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['assalamulaikum', 'warga', 'twitter', 'lucu', 'twitter', 'lucu']</t>
         </is>
@@ -1471,10 +1616,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19066</v>
+        <v>32695</v>
       </c>
       <c r="C30" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1488,17 +1633,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['hari', 'orange', 'ceriaaaa', 'bagaimana', 'sudah', 'kelihatan', 'ceria', 'belum', 'acara']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['orange', 'ceriaaaa', 'gmn', 'udah', 'keliatan', 'ceria', 'belom', 'acara']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['orange', 'ceriaaaa', 'gmn', 'udah', 'liat', 'ceria', 'bom', 'acara']</t>
+          <t>['orange', 'ceriaaaa', 'ceria', 'acara']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['orange', 'ceriaaaa', 'ceria', 'acara']</t>
         </is>
       </c>
     </row>
@@ -1507,10 +1657,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19067</v>
+        <v>32696</v>
       </c>
       <c r="C31" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1524,17 +1674,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['lelah', 'bukan', 'masalah', 'new', 'video', 'sudah', 'up', 'link', 'di', 'insta', 'cerita']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['lelah', 'new', 'video', 'udah', 'up', 'link', 'insta', 'story']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['lelah', 'new', 'video', 'udah', 'up', 'link', 'insta', 'story']</t>
+          <t>['lelah', 'new', 'video', 'up', 'link', 'insta', 'cerita']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['lelah', 'new', 'video', 'up', 'link', 'insta', 'cerita']</t>
         </is>
       </c>
     </row>
@@ -1543,10 +1698,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19068</v>
+        <v>32697</v>
       </c>
       <c r="C32" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1560,17 +1715,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['use', 'your', 'smile', 'to', 'change', 'the', 'world', 'do, not', 'let', 'the', 'world', 'change', 'your', 'smile', 'kasih', 'emoji']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['use', 'your', 'smile', 'to', 'change', 'the', 'world', 'dont', 'let', 'the', 'world', 'change', 'your', 'smile', 'kasih', 'emoji']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['use', 'your', 'smile', 'to', 'change', 'the', 'world', 'dont', 'let', 'the', 'world', 'change', 'your', 'smile', 'kasih', 'emoji']</t>
+          <t>['use', 'your', 'smile', 'to', 'change', 'the', 'world', 'do, not', 'let', 'the', 'world', 'change', 'your', 'smile', 'kasih', 'emoji']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['use', 'your', 'smile', 'to', 'change', 'the', 'world', 'do not', 'let', 'the', 'world', 'change', 'your', 'smile', 'kasih', 'emoji']</t>
         </is>
       </c>
     </row>
@@ -1579,10 +1739,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19069</v>
+        <v>32698</v>
       </c>
       <c r="C33" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1596,17 +1756,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['banyak', 'gaya', 'sedikit', 'lah', 'mana', 'yang', 'paling', 'cantik', 'the', 'edge']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['gaya', 'dikit', 'cantik', 'the', 'edge']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['gaya', 'dikit', 'cantik', 'the', 'edge']</t>
+          <t>['gaya', 'cantik', 'the', 'edge']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['gaya', 'cantik', 'the', 'edge']</t>
         </is>
       </c>
     </row>
@@ -1615,10 +1780,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19070</v>
+        <v>32699</v>
       </c>
       <c r="C34" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1632,17 +1797,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['gue', 'di', 'ramal', 'dan', 'hipnotis', 'now', 'di', 'net', 'televisi', 'net', 'televisi']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['gw', 'ramal', 'hipnotis', 'now', 'net', 'tv', 'net', 'tv']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['gw', 'ramal', 'hipnotis', 'now', 'net', 'tv', 'net', 'tv']</t>
+          <t>['gue', 'ramal', 'hipnotis', 'now', 'net', 'televisi', 'net', 'televisi']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['gue', 'ramal', 'hipnotis', 'now', 'net', 'televisi', 'net', 'televisi']</t>
         </is>
       </c>
     </row>
@@ -1651,10 +1821,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19071</v>
+        <v>32700</v>
       </c>
       <c r="C35" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1668,17 +1838,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['dari', 'sore', 'sampai', 'jam', 'malam', 'sama', 'orang', 'ini', 'tetap', 'bisa', 'peace', 'haha']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['sore', 'sampe', 'jam', 'malem', 'orang', 'tetep', 'peace', 'hahahaha']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['sore', 'sampe', 'jam', 'malem', 'orang', 'tetep', 'peace', 'hahahaha']</t>
+          <t>['sore', 'jam', 'malam', 'orang', 'peace', 'haha']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['sore', 'jam', 'malam', 'orang', 'peace', 'haha']</t>
         </is>
       </c>
     </row>
@@ -1687,10 +1862,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19072</v>
+        <v>32701</v>
       </c>
       <c r="C36" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1704,17 +1879,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['love', 'kamu', 'bro', 'happy', 'birthday', 'spesial', 'birthday', 'dia', 'gue', 'mau', 'bikin', 'qna', 'sama', 'qahtan']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['love', 'you', 'bro', 'happy', 'birthday', 'special', 'birthday', 'gw', 'qna', 'qahtan']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['love', 'you', 'bro', 'happy', 'birthday', 'special', 'birthday', 'gw', 'qna', 'qahtan']</t>
+          <t>['love', 'bro', 'happy', 'birthday', 'spesial', 'birthday', 'gue', 'qna', 'qahtan']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['love', 'bro', 'happy', 'birthday', 'spesial', 'birthday', 'gue', 'qna', 'qahtan']</t>
         </is>
       </c>
     </row>
@@ -1723,10 +1903,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19073</v>
+        <v>32702</v>
       </c>
       <c r="C37" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1740,17 +1920,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['hai', 'teman', 'teman', 'yuk', 'ikutan', 'di', 'id', 'grand', 'indonesia', 'senin', 'agustus']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['haiii', 'teman', 'teman', 'yuk', 'ikutan', 'id', 'grand', 'indonesia', 'senin', 'agustus']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['haiii', 'teman', 'teman', 'yuk', 'ikut', 'id', 'grand', 'indonesia', 'senin', 'agustus']</t>
+          <t>['hai', 'teman', 'teman', 'yuk', 'ikutan', 'id', 'grand', 'indonesia', 'senin', 'agustus']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['hai', 'teman', 'teman', 'yuk', 'ikut', 'id', 'grand', 'indonesia', 'senin', 'agustus']</t>
         </is>
       </c>
     </row>
@@ -1759,10 +1944,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19074</v>
+        <v>32703</v>
       </c>
       <c r="C38" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1776,17 +1961,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['brosis', 'ini', 'software', 'penambah', 'pengikut', 'dari', 'penjualsoftware', 'ampuh', 'banget', 'buat', 'naiikin', 'pengikut']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['brosis', 'software', 'penambah', 'follower', 'penjualsoftware', 'ampuh', 'banget', 'naiikin', 'follower']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['bros', 'software', 'tambah', 'follower', 'penjualsoftware', 'ampuh', 'banget', 'naiikin', 'follower']</t>
+          <t>['brosis', 'software', 'penambah', 'pengikut', 'penjualsoftware', 'ampuh', 'banget', 'naiikin', 'pengikut']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['bros', 'software', 'tambah', 'ikut', 'penjualsoftware', 'ampuh', 'banget', 'naiikin', 'ikut']</t>
         </is>
       </c>
     </row>
@@ -1795,10 +1985,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19075</v>
+        <v>32704</v>
       </c>
       <c r="C39" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1812,17 +2002,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['jangan', 'berhenti', 'karena', 'kamu', 'lelah', 'berhentilah', 'ketika', 'kamu', 'sampai', 'di', 'garis', 'finish']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['berhenti', 'karna', 'lelah', 'berhentilah', 'garis', 'finish']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['henti', 'karna', 'lelah', 'henti', 'garis', 'finish']</t>
+          <t>['berhenti', 'lelah', 'berhentilah', 'garis', 'finish']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['henti', 'lelah', 'henti', 'garis', 'finish']</t>
         </is>
       </c>
     </row>
@@ -1831,10 +2026,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19076</v>
+        <v>32705</v>
       </c>
       <c r="C40" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1848,15 +2043,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['dalam', 'pengerjaan', 'sesuatu', 'yang', 'super', 'kece', 'net', 'mediatama', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['pengerjaan', 'super', 'kece', 'net', 'mediatama', 'indonesia']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['kerja', 'super', 'kece', 'net', 'mediatama', 'indonesia']</t>
         </is>
@@ -1867,10 +2067,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19077</v>
+        <v>32706</v>
       </c>
       <c r="C41" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1884,17 +2084,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['gue', 'di', 'cengin', 'habis', 'habisnya', 'sama', 'manusia', 'ini', 'new', 'video', 'is', 'up', 'cek', 'link', 'di', 'bio', 'bisa', 'juga', 'di', 'cerita']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['gw', 'cengin', 'abis', 'abisan', 'ama', 'manusia', 'new', 'video', 'is', 'up', 'cek', 'link', 'bio', 'story']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['gw', 'cengin', 'abis', 'abis', 'ama', 'manusia', 'new', 'video', 'is', 'up', 'cek', 'link', 'bio', 'story']</t>
+          <t>['gue', 'cengin', 'habis', 'habisnya', 'manusia', 'new', 'video', 'is', 'up', 'cek', 'link', 'bio', 'cerita']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['gue', 'cengin', 'habis', 'habis', 'manusia', 'new', 'video', 'is', 'up', 'cek', 'link', 'bio', 'cerita']</t>
         </is>
       </c>
     </row>
@@ -1903,10 +2108,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19078</v>
+        <v>32707</v>
       </c>
       <c r="C42" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1920,17 +2125,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['favorit', 'youtube', 'influencer', 'of', 'the', 'tahun', 'padahal', 'fashion', 'gue', 'biasa', 'saja', 'terima, kasih', 'esmodpowered', 'by']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['fav', 'youtube', 'influencer', 'of', 'the', 'year', 'fashion', 'gw', 'thank', 'esmodpowered', 'by']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['fav', 'youtube', 'influencer', 'of', 'the', 'year', 'fashion', 'gw', 'thank', 'esmodpowered', 'by']</t>
+          <t>['favorit', 'youtube', 'influencer', 'of', 'the', 'fashion', 'gue', 'terima, kasih', 'esmodpowered', 'by']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['favorit', 'youtube', 'influencer', 'of', 'the', 'fashion', 'gue', 'terima kasih', 'esmodpowered', 'by']</t>
         </is>
       </c>
     </row>
@@ -1939,10 +2149,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19079</v>
+        <v>32708</v>
       </c>
       <c r="C43" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1956,17 +2166,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['oorrriiteee', 'dadakan', 'but', 'fun', 'grand', 'indonesia', 'belanja', 'centre', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['oorrriiteee', 'dadakan', 'but', 'fun', 'grand', 'indonesia', 'shopping', 'centre', 'jakarta']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['oorrriiteee', 'dada', 'but', 'fun', 'grand', 'indonesia', 'shopping', 'centre', 'jakarta']</t>
+          <t>['oorrriiteee', 'dadakan', 'but', 'fun', 'grand', 'indonesia', 'belanja', 'centre', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['oorrriiteee', 'dada', 'but', 'fun', 'grand', 'indonesia', 'belanja', 'centre', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -1975,10 +2190,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19080</v>
+        <v>32709</v>
       </c>
       <c r="C44" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1992,17 +2207,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'god', 'terpilih', 'menjadi', 'yang', 'terbaik', 'dari', 'keluarga', 'terbaik', 'di', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['thank', 'god', 'terpilih', 'terbaik', 'keluarga', 'terbaik', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['thank', 'god', 'pilih', 'baik', 'keluarga', 'baik', 'indonesia']</t>
+          <t>['terima, kasih', 'god', 'terpilih', 'terbaik', 'keluarga', 'terbaik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'god', 'pilih', 'baik', 'keluarga', 'baik', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2011,10 +2231,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19081</v>
+        <v>32710</v>
       </c>
       <c r="C45" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2028,17 +2248,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['my', 'famili', 'my', 'tim', 'net', 'mediatama', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['my', 'family', 'my', 'team', 'net', 'mediatama', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['my', 'family', 'my', 'team', 'net', 'mediatama', 'indonesia']</t>
+          <t>['my', 'famili', 'my', 'tim', 'net', 'mediatama', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['my', 'famili', 'my', 'tim', 'net', 'mediatama', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2047,10 +2272,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19082</v>
+        <v>32711</v>
       </c>
       <c r="C46" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2064,17 +2289,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['my', 'famili', 'my', 'tim', 'net', 'mediatama', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['my', 'family', 'my', 'team', 'net', 'mediatama', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['my', 'family', 'my', 'team', 'net', 'mediatama', 'indonesia']</t>
+          <t>['my', 'famili', 'my', 'tim', 'net', 'mediatama', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['my', 'famili', 'my', 'tim', 'net', 'mediatama', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2083,10 +2313,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19083</v>
+        <v>32712</v>
       </c>
       <c r="C47" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2100,15 +2330,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['cahaya', 'ilahi']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['cahaya', 'ilahi']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['cahaya', 'ilahi']</t>
         </is>
@@ -2119,10 +2354,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19084</v>
+        <v>32713</v>
       </c>
       <c r="C48" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2136,17 +2371,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['ateam', 'leggohhh', 'kita', 'masuk', 'nominasi', 'influencer', 'terfaforit', 'tahun', 'ini', 'yuk', 'kita', 'memilih', 'sebanyak']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['ateam', 'leggohhh', 'masuk', 'nominasi', 'influencer', 'terfaforit', 'yuk', 'vote']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['ateam', 'leggohhh', 'masuk', 'nominasi', 'influencer', 'terfaforit', 'yuk', 'vote']</t>
+          <t>['ateam', 'leggohhh', 'masuk', 'nominasi', 'influencer', 'terfaforit', 'yuk', 'memilih']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['ateam', 'leggohhh', 'masuk', 'nominasi', 'influencer', 'terfaforit', 'yuk', 'pilih']</t>
         </is>
       </c>
     </row>
@@ -2155,10 +2395,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19085</v>
+        <v>32714</v>
       </c>
       <c r="C49" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2172,15 +2412,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['today', 'shoot', 'tunggu', 'di', 'youtube', 'atta', 'halilintar', 'dan', 'genhalilintar']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['today', 'shoot', 'tunggu', 'youtube', 'atta', 'halilintar', 'genhalilintar']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['today', 'shoot', 'tunggu', 'youtube', 'atta', 'halilintar', 'genhalilintar']</t>
         </is>
@@ -2191,10 +2436,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19086</v>
+        <v>32715</v>
       </c>
       <c r="C50" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2208,15 +2453,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['the', 'floor', 'is', 'lava']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['the', 'floor', 'is', 'lava']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['the', 'floor', 'is', 'lava']</t>
         </is>
@@ -2227,10 +2477,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19087</v>
+        <v>32716</v>
       </c>
       <c r="C51" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2244,17 +2494,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['karena', 'ateam', 'semakin', 'strong', 'gue', 'bikin', 'instagram', 'kedua', 'attahalilintar', 'spesial', 'spam', 'dan', 'info', 'untuk', 'lebih']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['karna', 'ateam', 'strong', 'gw', 'ig', 'attahalilintar', 'spesial', 'spam', 'info']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['karna', 'ateam', 'strong', 'gw', 'ig', 'attahalilintar', 'spesial', 'spam', 'info']</t>
+          <t>['ateam', 'strong', 'gue', 'instagram', 'attahalilintar', 'spesial', 'spam', 'info']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['ateam', 'strong', 'gue', 'instagram', 'attahalilintar', 'spesial', 'spam', 'info']</t>
         </is>
       </c>
     </row>
@@ -2263,10 +2518,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19088</v>
+        <v>32717</v>
       </c>
       <c r="C52" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2280,17 +2535,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['ohgghhh', 'my', 'lordd', 'komen', 'unggah', 'video', 'spesial', 'sore', 'ini']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['ohgghhh', 'my', 'lordd', 'comment', 'upload', 'video', 'special', 'sore']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['ohgghhh', 'my', 'lordd', 'comment', 'upload', 'video', 'special', 'sore']</t>
+          <t>['ohgghhh', 'my', 'lordd', 'komen', 'unggah', 'video', 'spesial', 'sore']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['ohgghhh', 'my', 'lordd', 'komen', 'unggah', 'video', 'spesial', 'sore']</t>
         </is>
       </c>
     </row>
@@ -2299,10 +2559,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19089</v>
+        <v>32718</v>
       </c>
       <c r="C53" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2316,17 +2576,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['deadline', 'pekerjaan', 'selalu', 'bikin', 'stres', 'gue', 'deh', 'but', 'segalanya', 'is', 'gon', 'na', 'be', 'ok', 'kalau']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['deadline', 'kerjaan', 'stress', 'gw', 'deh', 'but', 'everythings', 'is', 'gon', 'na', 'be', 'okay']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['deadline', 'kerja', 'stress', 'gw', 'deh', 'but', 'everythings', 'is', 'gon', 'na', 'be', 'okay']</t>
+          <t>['deadline', 'pekerjaan', 'stres', 'gue', 'deh', 'but', 'is', 'gon', 'na', 'be', 'ok']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['deadline', 'kerja', 'stres', 'gue', 'deh', 'but', 'is', 'gon', 'na', 'be', 'ok']</t>
         </is>
       </c>
     </row>
@@ -2335,10 +2600,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19090</v>
+        <v>32719</v>
       </c>
       <c r="C54" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2352,17 +2617,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['surprise', 'fan', 'sampai', 'menangis', 'terharu', 'spesial', 'juta', 'subs', 'cek', 'di', 'youtube', 'atta', 'halilintar']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['surprise', 'fans', 'sampe', 'nangis', 'terharu', 'special', 'juta', 'subs', 'cek', 'youtube', 'atta', 'halilintar']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['surprise', 'fans', 'sampe', 'nang', 'haru', 'special', 'juta', 'subs', 'cek', 'youtube', 'atta', 'halilintar']</t>
+          <t>['surprise', 'fan', 'menangis', 'terharu', 'spesial', 'juta', 'subs', 'cek', 'youtube', 'atta', 'halilintar']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['surprise', 'fan', 'menang', 'haru', 'spesial', 'juta', 'subs', 'cek', 'youtube', 'atta', 'halilintar']</t>
         </is>
       </c>
     </row>
@@ -2371,10 +2641,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19091</v>
+        <v>32720</v>
       </c>
       <c r="C55" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2388,17 +2658,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['halo', 'ini', 'aku', 'rekomendasikan', 'superherbaltech', 'bagi', 'kamu', 'yang', 'mau', 'punya', 'mata', 'normal', 'keunggulan']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['hallo', 'rekomendasikan', 'superherbaltech', 'mata', 'normal', 'keunggulan']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['hallo', 'rekomendasi', 'superherbaltech', 'mata', 'normal', 'unggul']</t>
+          <t>['halo', 'rekomendasikan', 'superherbaltech', 'mata', 'normal', 'keunggulan']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['halo', 'rekomendasi', 'superherbaltech', 'mata', 'normal', 'unggul']</t>
         </is>
       </c>
     </row>
@@ -2407,10 +2682,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19092</v>
+        <v>32721</v>
       </c>
       <c r="C56" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2424,17 +2699,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'kamu', 'for', 'juta', 'subscribers', 'dan', 'subs', 'untuk', 'channel', 'personal', 'sungguh']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['thank', 'you', 'for', 'juta', 'subscribers', 'subs', 'channel', 'personal', 'sungguh']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['thank', 'you', 'for', 'juta', 'subscribers', 'subs', 'channel', 'personal', 'sungguh']</t>
+          <t>['terima, kasih', 'for', 'juta', 'subscribers', 'subs', 'channel', 'personal', 'sungguh']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'for', 'juta', 'subscribers', 'subs', 'channel', 'personal', 'sungguh']</t>
         </is>
       </c>
     </row>
@@ -2443,10 +2723,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19093</v>
+        <v>32722</v>
       </c>
       <c r="C57" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2460,15 +2740,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['pengalaman', 'luar', 'biasa', 'hari', 'ini', 'bisa', 'melihat', 'langsung', 'semangat', 'anak', 'yang', 'luar', 'biasa', 'walau']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['pengalaman', 'langsung', 'semangat', 'anak']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['alam', 'langsung', 'semangat', 'anak']</t>
         </is>
@@ -2479,10 +2764,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19094</v>
+        <v>32723</v>
       </c>
       <c r="C58" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2496,17 +2781,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['mengenalkan', 'ini', 'pacarpacar', 'aku', 'poligami', 'karena', 'lebih', 'dari', 'satu', 'kamera', 'vlog', 'juta', 'klik', 'link']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['kenalin', 'pacarpacar', 'poligami', 'karna', 'kamera', 'vlog', 'juta', 'klik', 'link']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['kenalin', 'pacarpacar', 'poligami', 'karna', 'kamera', 'vlog', 'juta', 'klik', 'link']</t>
+          <t>['mengenalkan', 'pacarpacar', 'poligami', 'kamera', 'vlog', 'juta', 'klik', 'link']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['kenal', 'pacarpacar', 'poligami', 'kamera', 'vlog', 'juta', 'klik', 'link']</t>
         </is>
       </c>
     </row>
@@ -2515,10 +2805,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19095</v>
+        <v>32724</v>
       </c>
       <c r="C59" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2532,17 +2822,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['halilintar', 'boyz', 'histori', 'cover', 'video', 'super', 'seru', 'komen', 'di, bawah', 'kita', 'cover', 'lagu', 'apalagi']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['halilintar', 'boyz', 'history', 'cover', 'video', 'super', 'seru', 'comment', 'dibawah', 'cover', 'lagu']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['halilintar', 'boyz', 'history', 'cover', 'video', 'super', 'seru', 'comment', 'bawah', 'cover', 'lagu']</t>
+          <t>['halilintar', 'boyz', 'histori', 'cover', 'video', 'super', 'seru', 'komen', 'di, bawah', 'cover', 'lagu']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['halilintar', 'boyz', 'histori', 'cover', 'video', 'super', 'seru', 'komen', 'di bawah', 'cover', 'lagu']</t>
         </is>
       </c>
     </row>
@@ -2551,10 +2846,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19096</v>
+        <v>32725</v>
       </c>
       <c r="C60" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2568,15 +2863,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['memenuhi', 'panggilan', 'hari', 'ini', 'istana', 'negara', 'ri']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['memenuhi', 'panggilan', 'istana', 'negara', 'ri']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['penuh', 'panggil', 'istana', 'negara', 'ri']</t>
         </is>
@@ -2587,10 +2887,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19097</v>
+        <v>32726</v>
       </c>
       <c r="C61" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2604,17 +2904,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['walau', 'hari', 'ini', 'demam', 'dan', 'meriang', 'tapi', 'tetap', 'semangat', 'buat', 'cover', 'lagu', 'barulaguu', 'apa']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['demam', 'meriang', 'tetep', 'semangat', 'cover', 'lagu', 'barulaguu']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['demam', 'meriang', 'tetep', 'semangat', 'cover', 'lagu', 'barulaguu']</t>
+          <t>['demam', 'meriang', 'semangat', 'cover', 'lagu', 'barulaguu']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['demam', 'meriang', 'semangat', 'cover', 'lagu', 'barulaguu']</t>
         </is>
       </c>
     </row>
@@ -2623,10 +2928,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19098</v>
+        <v>32727</v>
       </c>
       <c r="C62" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2640,17 +2945,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['keren', 'terima, kasih', 'ya', 'ateam', 'yang', 'buatkan', 'ini']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['kerenn', 'thank', 'yaa', 'ateam', 'bikinin']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['kerenn', 'thank', 'yaa', 'ateam', 'bikinin']</t>
+          <t>['keren', 'terima, kasih', 'ateam', 'buatkan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['keren', 'terima kasih', 'ateam', 'buat']</t>
         </is>
       </c>
     </row>
@@ -2659,10 +2969,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19099</v>
+        <v>32728</v>
       </c>
       <c r="C63" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2676,17 +2986,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['open', 'qna', 'dengan', 'mom', 'pertanyaan', 'yang', 'lucu', 'yang', 'seru', 'ya', 'guys']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['open', 'qna', 'with', 'mom', 'lucu', 'seruuu', 'yaa', 'guys']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['open', 'qna', 'with', 'mom', 'lucu', 'seruuu', 'yaa', 'guys']</t>
+          <t>['open', 'qna', 'mom', 'lucu', 'seru', 'guys']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['open', 'qna', 'mom', 'lucu', 'seru', 'guys']</t>
         </is>
       </c>
     </row>
@@ -2695,10 +3010,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19100</v>
+        <v>32729</v>
       </c>
       <c r="C64" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2712,15 +3027,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['malam', 'minggu', 'bersama', 'kesayanganku']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['malam', 'minggu', 'kesayanganku']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['malam', 'minggu', 'sayang']</t>
         </is>
@@ -2731,10 +3051,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19101</v>
+        <v>32730</v>
       </c>
       <c r="C65" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2748,17 +3068,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['daily', 'life', 'kemarin', 'sudah', 'juta', 'view', 'yang', 'ini', 'juga', 'day', 'viewthank', 'ateam']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['daily', 'life', 'kmaren', 'udah', 'juta', 'view', 'day', 'viewthank', 'ateam']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['daily', 'life', 'kmaren', 'udah', 'juta', 'view', 'day', 'viewthank', 'ateam']</t>
+          <t>['daily', 'life', 'kemarin', 'juta', 'view', 'day', 'viewthank', 'ateam']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['daily', 'life', 'kemarin', 'juta', 'view', 'day', 'viewthank', 'ateam']</t>
         </is>
       </c>
     </row>
@@ -2767,10 +3092,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19102</v>
+        <v>32731</v>
       </c>
       <c r="C66" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2784,17 +3109,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['my', 'famili', 'my', 'tim', 'keluargaku', 'yang', 'terbaik', 'di', 'dunia', 'terima, kasih', 'guys', 'sedikit', 'lagi', 'genhalilintar']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['my', 'family', 'my', 'team', 'keluargaku', 'terbaik', 'dunia', 'thank', 'guys', 'dikit', 'genhalilintar']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['my', 'family', 'my', 'team', 'keluarga', 'baik', 'dunia', 'thank', 'guys', 'dikit', 'genhalilintar']</t>
+          <t>['my', 'famili', 'my', 'tim', 'keluargaku', 'terbaik', 'dunia', 'terima, kasih', 'guys', 'genhalilintar']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['my', 'famili', 'my', 'tim', 'keluarga', 'baik', 'dunia', 'terima kasih', 'guys', 'genhalilintar']</t>
         </is>
       </c>
     </row>
@@ -2803,10 +3133,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19103</v>
+        <v>32732</v>
       </c>
       <c r="C67" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2820,17 +3150,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['gue', 'mau', 'tepati', 'janji', 'di', 'video', 'prank', 'kalau', 'komen', 'collab', 'sama', 'yang', 'di', 'prank', 'gue', 'mau']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['gw', 'tepatin', 'janji', 'video', 'prank', 'comment', 'collab', 'prank', 'gw']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['gw', 'tepatin', 'janji', 'video', 'prank', 'comment', 'collab', 'prank', 'gw']</t>
+          <t>['gue', 'tepati', 'janji', 'video', 'prank', 'komen', 'collab', 'prank', 'gue']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['gue', 'tepat', 'janji', 'video', 'prank', 'komen', 'collab', 'prank', 'gue']</t>
         </is>
       </c>
     </row>
@@ -2839,10 +3174,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19104</v>
+        <v>32733</v>
       </c>
       <c r="C68" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2856,17 +3191,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['jumat', 'barokahh', 'planning', 'akhir, pekan', 'apa', 'guys']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['jumat', 'barokahh', 'planning', 'weekend', 'ngapain', 'guys']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['jumat', 'barokahh', 'planning', 'weekend', 'ngapain', 'guys']</t>
+          <t>['jumat', 'barokahh', 'planning', 'akhir, pekan', 'guys']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['jumat', 'barokahh', 'planning', 'akhir pekan', 'guys']</t>
         </is>
       </c>
     </row>
@@ -2875,10 +3215,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19105</v>
+        <v>32734</v>
       </c>
       <c r="C69" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2892,17 +3232,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['top', 'mengetren', 'youtube', 'permulaan', 'yang', 'baik', 'terima, kasih', 'guys']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['top', 'trending', 'youtube', 'permulaan', 'thank', 'guys']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['top', 'trending', 'youtube', 'mula', 'thank', 'guys']</t>
+          <t>['top', 'mengetren', 'youtube', 'permulaan', 'terima, kasih', 'guys']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['top', 'tren', 'youtube', 'mula', 'terima kasih', 'guys']</t>
         </is>
       </c>
     </row>
@@ -2911,10 +3256,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19106</v>
+        <v>32735</v>
       </c>
       <c r="C70" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2928,17 +3273,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['mengetren', 'nomor', 'di', 'youtube', 'ini', 'baru', 'permulaan', 'terima, kasih', 'god', 'terima, kasih', 'semua', 'yang', 'sudah', 'support']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['trending', 'nomor', 'youtube', 'permulaan', 'thank', 'god', 'thank', 'udah', 'support']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['trending', 'nomor', 'youtube', 'mula', 'thank', 'god', 'thank', 'udah', 'support']</t>
+          <t>['mengetren', 'nomor', 'youtube', 'permulaan', 'terima, kasih', 'god', 'terima, kasih', 'support']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['tren', 'nomor', 'youtube', 'mula', 'terima kasih', 'god', 'terima kasih', 'support']</t>
         </is>
       </c>
     </row>
@@ -2947,10 +3297,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19107</v>
+        <v>32736</v>
       </c>
       <c r="C71" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2964,15 +3314,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['be', 'goood', 'do', 'goood']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['be', 'goood', 'do', 'goood']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['be', 'goood', 'do', 'goood']</t>
         </is>
@@ -2983,10 +3338,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19108</v>
+        <v>32737</v>
       </c>
       <c r="C72" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3000,15 +3355,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['ketika', 'jutaan', 'orang', 'tidak', 'percaya', 'padamu', 'itu', 'bukan', 'masalah', 'tapi', 'kalau', 'kamu', 'tidak', 'percaya', 'pada']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['jutaan', 'orang', 'percaya', 'padamu', 'percaya']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['juta', 'orang', 'percaya', 'pada', 'percaya']</t>
         </is>
@@ -3019,10 +3379,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19109</v>
+        <v>32738</v>
       </c>
       <c r="C73" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3036,17 +3396,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['ngapalin', 'dalam', 'beberapa', 'jam', 'langsung', 'take', 'jadinya', 'begini', 'shootingnya', 'juga', 'di, rumah', 'yang']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['ngapalin', 'jam', 'langsung', 'take', 'gini', 'shootingnya', 'dirumah']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['ngapalin', 'jam', 'langsung', 'take', 'gin', 'shootingnya', 'rumah']</t>
+          <t>['ngapalin', 'jam', 'langsung', 'take', 'shootingnya', 'di, rumah']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['ngapalin', 'jam', 'langsung', 'take', 'shootingnya', 'di rumah']</t>
         </is>
       </c>
     </row>
@@ -3055,10 +3420,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19110</v>
+        <v>32739</v>
       </c>
       <c r="C74" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3072,17 +3437,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['siapa', 'sudah', 'menonton', 'komen', 'di, bawah']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['udah', 'nonton', 'comment', 'dibawah']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['udah', 'nonton', 'comment', 'bawah']</t>
+          <t>['menonton', 'komen', 'di, bawah']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['tonton', 'komen', 'di bawah']</t>
         </is>
       </c>
     </row>
@@ -3091,10 +3461,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19111</v>
+        <v>32740</v>
       </c>
       <c r="C75" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3108,17 +3478,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['love', 'guys', 'inilah', 'sebagian', 'ateam', 'yang', 'datang', 'paling', 'pertama', 'dari', 'jam', 'pagi', 'sampai']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['love', 'guys', 'ateam', 'dateng', 'jam', 'pagi', 'sampe']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['love', 'guys', 'ateam', 'dateng', 'jam', 'pagi', 'sampe']</t>
+          <t>['love', 'guys', 'ateam', 'jam', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['love', 'guys', 'ateam', 'jam', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3127,10 +3502,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19112</v>
+        <v>32741</v>
       </c>
       <c r="C76" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3144,17 +3519,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['guys', 'video', 'sudah', 'up', 'super', 'lit', 'sari', 'kapan', 'pacific', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['guys', 'video', 'udah', 'up', 'super', 'lit', 'sari', 'pan', 'pacific', 'jakarta']</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['guys', 'video', 'udah', 'up', 'super', 'lit', 'sari', 'pan', 'pacific', 'jakarta']</t>
+          <t>['guys', 'video', 'up', 'super', 'lit', 'sari', 'pacific', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['guys', 'video', 'up', 'super', 'lit', 'sari', 'pacific', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -3163,10 +3543,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19113</v>
+        <v>32742</v>
       </c>
       <c r="C77" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3180,15 +3560,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['gila', 'gilaan', 'dan', 'tidak', 'masuk', 'akal', 'di', 'youtube', 'sooon']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>['gila', 'gilaan', 'masuk', 'akal', 'youtube', 'sooon']</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>['gila', 'gila', 'masuk', 'akal', 'youtube', 'sooon']</t>
         </is>
@@ -3199,10 +3584,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19114</v>
+        <v>32743</v>
       </c>
       <c r="C78" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3216,17 +3601,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['cinta', 'untuk', 'selamanya', 'dear', 'mom', 'love', 'kamu', 'tag', 'yang', 'sayang', 'mama', 'jangan', 'lupa', 'menonton']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['cinta', 'dear', 'mom', 'love', 'you', 'tag', 'sayang', 'mama', 'lupa', 'nonton']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['cinta', 'dear', 'mom', 'love', 'you', 'tag', 'sayang', 'mama', 'lupa', 'nonton']</t>
+          <t>['cinta', 'dear', 'mom', 'love', 'tag', 'sayang', 'mama', 'lupa', 'menonton']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['cinta', 'dear', 'mom', 'love', 'tag', 'sayang', 'mama', 'lupa', 'tonton']</t>
         </is>
       </c>
     </row>
@@ -3235,10 +3625,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19115</v>
+        <v>32744</v>
       </c>
       <c r="C79" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3252,15 +3642,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['work', 'hard', 'play', 'hard', 'all', 'day', 'every', 'day']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>['work', 'hard', 'play', 'hard', 'all', 'day', 'every', 'day']</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>['work', 'hard', 'play', 'hard', 'all', 'day', 'every', 'day']</t>
         </is>
@@ -3271,10 +3666,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19116</v>
+        <v>32745</v>
       </c>
       <c r="C80" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3288,15 +3683,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['tempat', 'terbatas', 'segera', 'yang', 'mau', 'ikut', 'kontak', 'nomor', 'yang', 'ada', 'di', 'banner', 'kita', 'seru', 'seruan']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['terbatas', 'kontak', 'nomor', 'banner', 'seru', 'seruan']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['batas', 'kontak', 'nomor', 'banner', 'seru', 'seru']</t>
         </is>
@@ -3307,10 +3707,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19117</v>
+        <v>32746</v>
       </c>
       <c r="C81" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3324,17 +3724,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['hari', 'pertama', 'dapat', 'truk', 'langsung', 'bikin', 'video', 'gilagilaan', 'di', 'truk', 'ini', 'menonton', 'sekarang', 'di']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['dapet', 'truk', 'langsung', 'video', 'gilagilaan', 'truk', 'nonton']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['dapet', 'truk', 'langsung', 'video', 'gilagilaan', 'truk', 'nonton']</t>
+          <t>['truk', 'langsung', 'video', 'gilagilaan', 'truk', 'menonton']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['truk', 'langsung', 'video', 'gilagilaan', 'truk', 'tonton']</t>
         </is>
       </c>
     </row>
@@ -3343,10 +3748,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19118</v>
+        <v>32747</v>
       </c>
       <c r="C82" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3360,17 +3765,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['kemarin', 'gue', 'memberi', 'surprise', 'buat', 'adik', 'gue', 'memberi', 'laptop', 'tipis', 'super', 'canggih', 'dari', 'asus', 'dia', 'teriak']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['kmaren', 'gw', 'ngasih', 'surprise', 'adek', 'gw', 'ngasih', 'laptop', 'tipis', 'super', 'canggih', 'asus', 'teriak']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['kmaren', 'gw', 'ngasih', 'surprise', 'adek', 'gw', 'ngasih', 'laptop', 'tipis', 'super', 'canggih', 'asus', 'teriak']</t>
+          <t>['kemarin', 'gue', 'surprise', 'adik', 'gue', 'laptop', 'tipis', 'super', 'canggih', 'asus', 'teriak']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['kemarin', 'gue', 'surprise', 'adik', 'gue', 'laptop', 'tipis', 'super', 'canggih', 'asus', 'teriak']</t>
         </is>
       </c>
     </row>
@@ -3379,10 +3789,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19119</v>
+        <v>32748</v>
       </c>
       <c r="C83" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3396,17 +3806,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['ateam', 'mana', 'suaranya', 'akhirnya', 'setelah', 'berbulan', 'dan', 'bertahun', 'kita', 'mengadakan', 'st', 'gath', 'yuk']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['ateam', 'suaranya', 'berbulan', 'bertahun', 'ngadain', 'st', 'gath', 'yuk']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['ateam', 'suara', 'bulan', 'tahun', 'ngadain', 'st', 'gath', 'yuk']</t>
+          <t>['ateam', 'suaranya', 'berbulan', 'bertahun', 'mengadakan', 'st', 'gath', 'yuk']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['ateam', 'suara', 'bulan', 'tahun', 'ada', 'st', 'gath', 'yuk']</t>
         </is>
       </c>
     </row>
@@ -3415,10 +3830,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19120</v>
+        <v>32749</v>
       </c>
       <c r="C84" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3432,17 +3847,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['the', 'more', 'we', 'bagikan', 'the', 'more', 'we', 'have', 'bagaimana', 'lebarannya', 'bagikan', 'di', 'komen', 'ya', 'bocoran']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['the', 'more', 'we', 'share', 'the', 'more', 'we', 'have', 'lebarannya', 'share', 'comment', 'yahh', 'bocoran']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['the', 'more', 'we', 'share', 'the', 'more', 'we', 'have', 'lebaran', 'share', 'comment', 'yahh', 'bocor']</t>
+          <t>['the', 'more', 'we', 'bagikan', 'the', 'more', 'we', 'have', 'lebarannya', 'bagikan', 'komen', 'bocoran']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['the', 'more', 'we', 'bagi', 'the', 'more', 'we', 'have', 'lebaran', 'bagi', 'komen', 'bocor']</t>
         </is>
       </c>
     </row>
@@ -3451,10 +3871,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19121</v>
+        <v>32750</v>
       </c>
       <c r="C85" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3468,17 +3888,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'tuhan', 'dengan', 'ada', 'nya', 'hari', 'raya', 'hari', 'dimana', 'bertemu', 'sanak', 'saudara', 'teman', 'kakek', 'nenek']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['makasih', 'tuhan', 'raya', 'dimana', 'bertemu', 'sanak', 'saudara', 'teman', 'kakek', 'nenek']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['makasih', 'tuhan', 'raya', 'mana', 'temu', 'sanak', 'saudara', 'teman', 'kakek', 'nenek']</t>
+          <t>['terima, kasih', 'tuhan', 'raya', 'dimana', 'bertemu', 'sanak', 'saudara', 'teman', 'kakek', 'nenek']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'tuhan', 'raya', 'mana', 'temu', 'sanak', 'saudara', 'teman', 'kakek', 'nenek']</t>
         </is>
       </c>
     </row>
@@ -3487,10 +3912,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19122</v>
+        <v>32751</v>
       </c>
       <c r="C86" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3504,17 +3929,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['dari', 'hati', 'yang', 'terdalam', 'maaf', 'ya', 'kalau', 'atta', 'ada', 'salah', 'sama', 'teman', 'semuaa', 'yang', 'di', 'sengaja', 'maupun']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['hati', 'terdalam', 'maaf', 'atta', 'salah', 'temen', 'semuaa', 'sengaja']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['hati', 'dalam', 'maaf', 'atta', 'salah', 'temen', 'semuaa', 'sengaja']</t>
+          <t>['hati', 'terdalam', 'maaf', 'atta', 'salah', 'teman', 'semuaa', 'sengaja']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['hati', 'dalam', 'maaf', 'atta', 'salah', 'teman', 'semuaa', 'sengaja']</t>
         </is>
       </c>
     </row>
@@ -3523,10 +3953,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19123</v>
+        <v>32752</v>
       </c>
       <c r="C87" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3540,15 +3970,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['mohon', 'maaf', 'lahir', 'batin', 'atas', 'kesalahan', 'yang', 'di', 'sengaja', 'maupun', 'yang', 'tidak', 'di', 'sengaja', 'untuk']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>['mohon', 'maaf', 'lahir', 'batin', 'kesalahan', 'sengaja', 'sengaja']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>['mohon', 'maaf', 'lahir', 'batin', 'salah', 'sengaja', 'sengaja']</t>
         </is>
@@ -3559,10 +3994,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19124</v>
+        <v>32753</v>
       </c>
       <c r="C88" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3576,17 +4011,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['takbir', 'ramadan', 'pergi', 'maafkan', 'aku', 'tuhan', 'kalau', 'banyak', 'salah', 'di', 'bulan', 'suci', 'semoga']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['takbir', 'ramadhan', 'pergi', 'maafkan', 'tuhan', 'salah', 'suci', 'semoga']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['takbir', 'ramadhan', 'pergi', 'maaf', 'tuhan', 'salah', 'suci', 'moga']</t>
+          <t>['takbir', 'ramadan', 'pergi', 'maafkan', 'tuhan', 'salah', 'suci', 'semoga']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['takbir', 'ramadan', 'pergi', 'maaf', 'tuhan', 'salah', 'suci', 'moga']</t>
         </is>
       </c>
     </row>
@@ -3595,10 +4035,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19125</v>
+        <v>32754</v>
       </c>
       <c r="C89" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3612,17 +4052,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'pak', 'jokowi', 'undangan', 'makan', 'makan', 'buka', 'puasanyaa', 'and', 'happy', 'belated', 'birthday', 'pak']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['makasih', 'jokowi', 'undangan', 'makan', 'makan', 'buka', 'puasanyaa', 'and', 'happy', 'belated', 'birthday']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['makasih', 'jokowi', 'undang', 'makan', 'makan', 'buka', 'puasanyaa', 'and', 'happy', 'belated', 'birthday']</t>
+          <t>['terima, kasih', 'jokowi', 'undangan', 'makan', 'makan', 'buka', 'puasanyaa', 'and', 'happy', 'belated', 'birthday']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'jokowi', 'undang', 'makan', 'makan', 'buka', 'puasanyaa', 'and', 'happy', 'belated', 'birthday']</t>
         </is>
       </c>
     </row>
@@ -3631,10 +4076,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19126</v>
+        <v>32755</v>
       </c>
       <c r="C90" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3648,17 +4093,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['ini', 'keluarga', 'gue', 'ya', 'memang', 'keluarga', 'adalah', 'segalanya', 'buat', 'gue', 'kemanapun', 'sama', 'keluarga', 'ayah']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['keluarga', 'gw', 'keluarga', 'gw', 'kemanapun', 'keluarga', 'ayah']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['keluarga', 'gw', 'keluarga', 'gw', 'mana', 'keluarga', 'ayah']</t>
+          <t>['keluarga', 'gue', 'keluarga', 'gue', 'kemanapun', 'keluarga', 'ayah']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['keluarga', 'gue', 'keluarga', 'gue', 'mana', 'keluarga', 'ayah']</t>
         </is>
       </c>
     </row>
@@ -3667,10 +4117,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19127</v>
+        <v>32756</v>
       </c>
       <c r="C91" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3684,17 +4134,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['jika', 'kamu', 'melihat', 'hater', 'kill', 'them', 'dengan', 'sukses', 'and', 'bury', 'them', 'dengan', 'smile']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['haters', 'kill', 'them', 'with', 'success', 'and', 'bury', 'them', 'with', 'smile']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['haters', 'kill', 'them', 'with', 'success', 'and', 'bury', 'them', 'with', 'smile']</t>
+          <t>['hater', 'kill', 'them', 'sukses', 'and', 'bury', 'them', 'smile']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['hater', 'kill', 'them', 'sukses', 'and', 'bury', 'them', 'smile']</t>
         </is>
       </c>
     </row>
@@ -3703,10 +4158,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19128</v>
+        <v>32757</v>
       </c>
       <c r="C92" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3720,15 +4175,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['buang', 'racun', 'fc', 'ada', 'nama', 'yang', 'lebih', 'kreatif']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>['buang', 'racun', 'fc', 'nama', 'kreatif']</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>['buang', 'racun', 'fc', 'nama', 'kreatif']</t>
         </is>
@@ -3739,10 +4199,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19129</v>
+        <v>32758</v>
       </c>
       <c r="C93" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3756,17 +4216,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['dibulan', 'puasa', 'aktivitas', 'aku', 'bertambah', 'padat', 'tapi', 'aku', 'enggak', 'khawatir', 'kesegaran', 'mulut', 'dan', 'nafas']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['dibulan', 'puasa', 'aktifitas', 'bertambah', 'padat', 'nggak', 'khawatir', 'kesegaran', 'mulut', 'nafas']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['bulan', 'puasa', 'aktifitas', 'tambah', 'padat', 'nggak', 'khawatir', 'segar', 'mulut', 'nafas']</t>
+          <t>['dibulan', 'puasa', 'aktivitas', 'bertambah', 'padat', 'khawatir', 'kesegaran', 'mulut', 'nafas']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['bulan', 'puasa', 'aktivitas', 'tambah', 'padat', 'khawatir', 'segar', 'mulut', 'nafas']</t>
         </is>
       </c>
     </row>
@@ -3775,10 +4240,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19130</v>
+        <v>32759</v>
       </c>
       <c r="C94" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3792,17 +4257,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['pertama', 'kalinya', 'bikin', 'lagu', 'sendiri', 'yang', 'ada', 'rap', 'nya', 'ramadan', 'engkau', 'datang']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['kalinya', 'lagu', 'rap', 'ramadhan', 'engkau']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['kali', 'lagu', 'rap', 'ramadhan', 'engkau']</t>
+          <t>['kalinya', 'lagu', 'rap', 'ramadan', 'engkau']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['kali', 'lagu', 'rap', 'ramadan', 'engkau']</t>
         </is>
       </c>
     </row>
@@ -3811,10 +4281,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19131</v>
+        <v>32760</v>
       </c>
       <c r="C95" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3828,17 +4298,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['gue', 'bikin', 'lagu', 'serba', 'hari', 'karena', 'mengejar', 'sebelum', 'lebaran', 'video', 'clip', 'dalam', 'hari', 'edit', 'dalam']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['gw', 'lagu', 'serba', 'karna', 'ngejar', 'lebaran', 'video', 'clip', 'edit']</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['gw', 'lagu', 'serba', 'karna', 'ngejar', 'lebaran', 'video', 'clip', 'edit']</t>
+          <t>['gue', 'lagu', 'serba', 'mengejar', 'lebaran', 'video', 'clip', 'edit']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['gue', 'lagu', 'serba', 'kejar', 'lebaran', 'video', 'clip', 'edit']</t>
         </is>
       </c>
     </row>
@@ -3847,10 +4322,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19132</v>
+        <v>32761</v>
       </c>
       <c r="C96" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3864,17 +4339,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['im', 'your', 'fan', 'from', 'malaysia', 'your', 'famili', 'is', 'sok', 'cute', 'and', 'funny', 'kamu', 'have', 'an', 'amazing', 'famili', 'terima', 'kasih', 'malaysia']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['im', 'your', 'fan', 'from', 'malaysia', 'your', 'family', 'is', 'so', 'cute', 'and', 'funny', 'you', 'have', 'an', 'amazing', 'family', 'terima', 'kasih', 'malaysia']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['im', 'your', 'fan', 'from', 'malaysia', 'your', 'family', 'is', 'so', 'cute', 'and', 'funny', 'you', 'have', 'an', 'amazing', 'family', 'terima', 'kasih', 'malaysia']</t>
+          <t>['im', 'your', 'fan', 'from', 'malaysia', 'your', 'famili', 'is', 'sok', 'cute', 'and', 'funny', 'have', 'an', 'amazing', 'famili', 'terima', 'kasih', 'malaysia']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['im', 'your', 'fan', 'from', 'malaysia', 'your', 'famili', 'is', 'sok', 'cute', 'and', 'funny', 'have', 'an', 'amazing', 'famili', 'terima', 'kasih', 'malaysia']</t>
         </is>
       </c>
     </row>
@@ -3883,10 +4363,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19133</v>
+        <v>32762</v>
       </c>
       <c r="C97" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3900,17 +4380,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['guys', 'gabung', 'europe', 'halal', 'trip', 'ayo', 'plus', 'istanbul', 'berhadiah', 'iphone', 'untuk', 'orang', 'yang']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['guys', 'gabung', 'europe', 'halal', 'trip', 'yuuuk', 'plus', 'istanbul', 'berhadiah', 'iphone', 'orang']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['guys', 'gabung', 'europe', 'halal', 'trip', 'yuuuk', 'plus', 'istanbul', 'hadiah', 'iphone', 'orang']</t>
+          <t>['guys', 'gabung', 'europe', 'halal', 'trip', 'ayo', 'plus', 'istanbul', 'berhadiah', 'iphone', 'orang']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['guys', 'gabung', 'europe', 'halal', 'trip', 'ayo', 'plus', 'istanbul', 'hadiah', 'iphone', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3919,10 +4404,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19134</v>
+        <v>32763</v>
       </c>
       <c r="C98" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3936,17 +4421,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['the', 'camera', 'is', 'an', 'instrument', 'that', 'teaches', 'people', 'how', 'to', 'see', 'tanpa', 'camera']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['the', 'camera', 'is', 'an', 'instrument', 'that', 'teaches', 'people', 'how', 'to', 'see', 'without', 'camera']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['the', 'camera', 'is', 'an', 'instrument', 'that', 'teaches', 'people', 'how', 'to', 'see', 'without', 'camera']</t>
+          <t>['the', 'camera', 'is', 'an', 'instrument', 'that', 'teaches', 'people', 'how', 'to', 'see', 'camera']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['the', 'camera', 'is', 'an', 'instrument', 'that', 'teaches', 'people', 'how', 'to', 'see', 'camera']</t>
         </is>
       </c>
     </row>
